--- a/pred_ohlcv/54_21/2019-10-28 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 SNT ohlcv.xlsx
@@ -522,7 +522,7 @@
         <v>64080.78352957749</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>181130.2868295775</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>228820.5571295775</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>203940.5571295775</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>289429.6335295776</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>290839.0397295776</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>288050.0697295776</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>292633.3171295776</v>
       </c>
       <c r="H59">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2380054.029624349</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2386832.686624349</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2349832.686624349</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2352092.238924349</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2447131.485724349</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-28 SNT ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 SNT ohlcv.xlsx
@@ -574,7 +574,7 @@
         <v>163880.7835295775</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>250319.6605295775</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>181130.2868295775</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>228820.5571295775</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>204820.5571295775</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>203940.5571295775</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>281937.3255295776</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>279629.6335295776</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>292429.6335295776</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>289429.6335295776</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>290839.0397295776</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>288050.0697295776</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>296650.0697295776</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>292633.3171295776</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2353851.927224349</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2355772.594424349</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2347572.594424349</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2349385.045924349</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2310185.045924349</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2310885.045924349</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2260954.975924349</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2281254.029624349</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2381054.029624349</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2380054.029624349</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2386832.686624349</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2349832.686624349</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2352092.238924349</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2285892.238924349</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2447131.485724349</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2434931.485724349</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2334972.346424349</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2366722.346424349</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2330324.329524349</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
